--- a/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.3875686603376466</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.17110836767053</v>
+        <v>2.171108367670529</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.09308803236906532</v>
+        <v>0.05146819780741218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.38901333101917</v>
+        <v>-1.356429926584523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4033970219924106</v>
+        <v>0.2909952834931402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1325319219281676</v>
+        <v>0.2124368117205946</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3646013991038951</v>
+        <v>-0.4038492771906338</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.058982044910543</v>
+        <v>1.112745170012147</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4412610461793152</v>
+        <v>0.4297508304523101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4954808365506767</v>
+        <v>-0.4585055980689123</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.213576207386679</v>
+        <v>1.224384361292579</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.022155409194939</v>
+        <v>2.919473202485354</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.284316871759656</v>
+        <v>1.251917346959514</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.897525827813298</v>
+        <v>3.722620499951816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.482545266296518</v>
+        <v>2.526158589137089</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.086188341853955</v>
+        <v>2.109015062113272</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.551467926247303</v>
+        <v>3.604947117609387</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.295595278723308</v>
+        <v>2.319003808877519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.303278805953386</v>
+        <v>1.289063705186267</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.250467500827619</v>
+        <v>3.243513792028142</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2197666774354694</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.231103856280897</v>
+        <v>1.231103856280896</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1050849615615045</v>
+        <v>-0.01143498427222191</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5410249497550055</v>
+        <v>-0.5535565686554812</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1034361614444746</v>
+        <v>0.05732128604072576</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05796789845568966</v>
+        <v>0.05765899273608427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1893799908197314</v>
+        <v>-0.2069525599415559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.446515300469069</v>
+        <v>0.467647313711278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1935559547684645</v>
+        <v>0.184495215368682</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2400239852577217</v>
+        <v>-0.2287964563390937</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5705104585870517</v>
+        <v>0.5381234368717026</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.179576718251204</v>
+        <v>2.146690276870358</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9923143960577144</v>
+        <v>0.909211150633763</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.66534640787997</v>
+        <v>2.682544452323572</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.113515728002858</v>
+        <v>2.247452191329978</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.840388559881426</v>
+        <v>1.913905308811898</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.06402520935545</v>
+        <v>3.211812587148066</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.631904908027705</v>
+        <v>1.619590931952161</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9139928770108133</v>
+        <v>0.9141930317411607</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.349545871557997</v>
+        <v>2.268709849853623</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.7436765609077248</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.249334172952883</v>
+        <v>2.249334172952882</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7920138171774116</v>
@@ -878,7 +878,7 @@
         <v>0.5004862010527326</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.821940365176792</v>
+        <v>1.821940365176791</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1088722996762732</v>
+        <v>0.1206819448066808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3069450986268562</v>
+        <v>-0.262436550752747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.685310114586305</v>
+        <v>0.7289417871961683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1707467544593181</v>
+        <v>0.1840256719877387</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0952138965537348</v>
+        <v>0.08159234439056492</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.450526339863701</v>
+        <v>1.449010783949744</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2872478723558811</v>
+        <v>0.3174308234880808</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05730805096090012</v>
+        <v>0.03109554448170216</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.256683972734991</v>
+        <v>1.338616223785604</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.414008749737958</v>
+        <v>1.442984608870841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8263471331427609</v>
+        <v>0.8362213243520261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.170159651659575</v>
+        <v>2.209383740484489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.609641073564087</v>
+        <v>1.56018803732817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.525790548308056</v>
+        <v>1.471024332514201</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.21127281146065</v>
+        <v>3.126544815300209</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.248957682588278</v>
+        <v>1.341316864543645</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.963736950685154</v>
+        <v>0.9187254597334277</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.428599849241351</v>
+        <v>2.410387649963947</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.8394730838402182</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>3.055968163978982</v>
+        <v>3.055968163978981</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.07722302369011708</v>
+        <v>0.0485896538493197</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4530133505456925</v>
+        <v>-0.3982876240721361</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6856858171189316</v>
+        <v>0.6790411911073235</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05502643518497049</v>
+        <v>0.1108954815404588</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04021677507146022</v>
+        <v>0.02131105351065707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.242031845192752</v>
+        <v>1.241219723541948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2788314250771491</v>
+        <v>0.3215504871777602</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03711580976539792</v>
+        <v>0.02594211600997008</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.499731763824804</v>
+        <v>1.600775395044109</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.284195907603641</v>
+        <v>5.802740783837102</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.31931291311506</v>
+        <v>3.203856814519156</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.121312842577467</v>
+        <v>9.709629865904004</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.698770100265196</v>
+        <v>3.898503836713078</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.866727619657634</v>
+        <v>3.926510985360658</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.566717800607547</v>
+        <v>7.336852271192853</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.947455009036904</v>
+        <v>3.222361182044672</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.341958899290539</v>
+        <v>2.197510596953778</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.952074460712887</v>
+        <v>6.209237806122923</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.1979612856186617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.080463961491929</v>
+        <v>2.080463961491928</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1707975117237867</v>
@@ -1092,7 +1092,7 @@
         <v>-0.1665757419987821</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.429588846053988</v>
+        <v>1.429588846053987</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2491587549321639</v>
+        <v>0.2309771382797424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3261546991326322</v>
+        <v>-0.3293403456770093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9170169963247172</v>
+        <v>1.086357832411083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.563774712696026</v>
+        <v>-1.465543455471648</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.035707169165757</v>
+        <v>-2.108220546292838</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9336954606256226</v>
+        <v>-1.008851518377392</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2520682097517984</v>
+        <v>-0.2354757962833534</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8826561329516348</v>
+        <v>-0.8359764368952709</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5084033663091199</v>
+        <v>0.5493893110769399</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.82862992334291</v>
+        <v>2.934403868775818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9311227381918842</v>
+        <v>0.966469178001771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.741694760620397</v>
+        <v>4.09138663027347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.064039148614478</v>
+        <v>1.807987014528301</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.600586575462878</v>
+        <v>0.6186570165821995</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.034376350042606</v>
+        <v>2.033132512508627</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.836486746619229</v>
+        <v>1.930669831334029</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4646517512748925</v>
+        <v>0.5785669831937734</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.405704952963061</v>
+        <v>2.469185998760381</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2070910404984776</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.777299852078719</v>
+        <v>1.777299852078718</v>
       </c>
     </row>
     <row r="20">
@@ -1211,22 +1211,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.658181042916499</v>
+        <v>-0.7269051576305775</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8599275712019492</v>
+        <v>-0.8629308732317378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4037335785719351</v>
+        <v>-0.4364022818052438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3308407045962102</v>
+        <v>-0.2988656980580828</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7326652713538556</v>
+        <v>-0.7486477287017668</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3136999539718562</v>
+        <v>0.3621041601552518</v>
       </c>
     </row>
     <row r="21">
@@ -1240,22 +1240,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>3.070403551558497</v>
+        <v>2.901981809387686</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9513473904042596</v>
+        <v>1.035448417860083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.651068742386609</v>
+        <v>2.540295585787133</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.239963684621125</v>
+        <v>4.132743435337301</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.341323570118419</v>
+        <v>1.602945392146323</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.424494879428734</v>
+        <v>5.852026552637463</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3905415614081982</v>
+        <v>0.4071083746864919</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4734265506263194</v>
+        <v>-0.4819639608200367</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7537437894042833</v>
+        <v>0.749140835610921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2623535761676291</v>
+        <v>0.3208179171646119</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.09960359473119304</v>
+        <v>-0.08813914300636408</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.227064316322377</v>
+        <v>1.238373904839297</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5419278043163367</v>
+        <v>0.525468265702045</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1599685579541622</v>
+        <v>-0.1049100139932006</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.186272366874085</v>
+        <v>1.210747330331514</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.593234309435187</v>
+        <v>1.623579991976577</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6032128060870054</v>
+        <v>0.5168898251489324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.075963369961758</v>
+        <v>2.093963069746076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.454810132927521</v>
+        <v>1.555683611475563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.089554256952735</v>
+        <v>1.060574862774281</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.490369434706903</v>
+        <v>2.468056891536369</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.43710323412941</v>
+        <v>1.433283440168125</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6224947118806233</v>
+        <v>0.649002687026068</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.109465734422038</v>
+        <v>2.095583768374321</v>
       </c>
     </row>
     <row r="25">
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3260909839026422</v>
+        <v>0.3086526774174987</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4167791756187429</v>
+        <v>-0.4221035744198426</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5773403614053348</v>
+        <v>0.5959194610821659</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1793574855367835</v>
+        <v>0.1852752541413592</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07273769893597273</v>
+        <v>-0.06962103220103281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8548538945182942</v>
+        <v>0.7927063600176654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4419111961935581</v>
+        <v>0.4220363179861168</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1215450050675064</v>
+        <v>-0.08844005696963975</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9269784328462359</v>
+        <v>0.973356546155418</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.442147907462079</v>
+        <v>2.385154867175292</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9088740372356608</v>
+        <v>0.7518994728817322</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.937987499531892</v>
+        <v>3.13258607515942</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.634566817517018</v>
+        <v>1.610772610357966</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.21835115520264</v>
+        <v>1.139839073031967</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.749925813809754</v>
+        <v>2.690421226485717</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.638953373375872</v>
+        <v>1.638645516647739</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7523429259952324</v>
+        <v>0.7528306388986773</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.423263647770487</v>
+        <v>2.3636676993815</v>
       </c>
     </row>
     <row r="28">
